--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1823065.038245679</v>
+        <v>1820771.442789085</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>159.2863281043619</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.1205759320737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>77.12665771331851</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>20.20520580535312</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>399.957146489229</v>
       </c>
       <c r="H5" t="n">
-        <v>126.5388824951715</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877617</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>235.7835939636764</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>77.31354443380459</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.88617166826073</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.37250637580689</v>
       </c>
       <c r="S13" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>251.5502284016991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>55.30088041042146</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076765</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>34.44047701880739</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710084</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>101.6969570046971</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.5115415340498</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012393</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576171</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,13 +3010,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>148.0280580960833</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.703916880933</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>35.41770597126623</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.9868975105686</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740352</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3715,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362948</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0.6197054599889589</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.412118557032</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2106.577233583055</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C2" t="n">
-        <v>1737.614716642644</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D2" t="n">
-        <v>1379.349018035893</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>993.5607654376488</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>582.5748606480413</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,13 +4331,13 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2106.577233583055</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2106.577233583055</v>
+        <v>1537.058030511571</v>
       </c>
       <c r="Y2" t="n">
-        <v>2106.577233583055</v>
+        <v>1146.918698535759</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,22 +4410,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1614.486495938517</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>910.9948295422085</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C4" t="n">
-        <v>742.0586466143017</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>591.9420072019659</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>444.0289136195728</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>297.1389661216624</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>129.152501429941</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.643294372448</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1092.643294372448</v>
+        <v>549.7445279085429</v>
       </c>
       <c r="Y4" t="n">
-        <v>1092.643294372448</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2175.400891308158</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1806.438374367746</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="D5" t="n">
-        <v>1448.172675760996</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="E5" t="n">
-        <v>1062.384423162752</v>
+        <v>817.0352339990388</v>
       </c>
       <c r="F5" t="n">
-        <v>651.398518373144</v>
+        <v>810.0897332498354</v>
       </c>
       <c r="G5" t="n">
-        <v>236.3260682181405</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>3325.605821609171</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2952.140063348092</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>2562.00073137228</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1909.864364776975</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1718.178480603802</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>435.2177891581066</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3087.440575181215</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2756.377687837644</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.60903256753</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.14327430645</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>676.4685272225361</v>
       </c>
       <c r="C10" t="n">
-        <v>294.7232451715945</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>144.6066057592588</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>858.1169920527758</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>858.1169920527758</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>858.1169920527758</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2390.881471216014</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5510,28 +5510,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,55 +5647,55 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703105</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424036</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424036</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>378.6527890600105</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>231.7628415621001</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415621001</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2412.174722955203</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2192.573257978144</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1903.498031322342</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1648.813543116455</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
         <v>1948.813509611463</v>
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,7 +6005,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6020,16 +6020,16 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>411.1294017454277</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797189</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6239,16 +6239,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703091</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424022</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>376.4492432300665</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6452,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6923,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,22 +6950,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>411.1294017454277</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,13 +7254,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.121104285317</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.131553387299</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.338974243769</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,10 +7731,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>21.1809937004744</v>
       </c>
       <c r="P3" t="n">
-        <v>240.4465442417442</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>28.00274033431482</v>
       </c>
       <c r="S13" t="n">
-        <v>125.5054897610421</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5874149221289144</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.9938324358024</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580152</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>146.5858089828372</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>65.54986409393075</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112519402</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711618</v>
       </c>
     </row>
     <row r="32">
@@ -24926,7 +24926,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>110.003342051665</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.59775584152624</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459267</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,13 +25603,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294937</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>285.9032928766021</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.88259428919189</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583916</v>
@@ -26323,37 +26323,37 @@
         <v>544823.9547907539</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="J2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="K2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="L2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>544823.954790754</v>
       </c>
-      <c r="K2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
+        <v>544823.9547907544</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907542</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907542</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>203438.7416121058</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>49110.09270605445</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.620276492381828e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
+        <v>89134.1790931202</v>
+      </c>
+      <c r="D4" t="n">
         <v>89134.17909312015</v>
-      </c>
-      <c r="D4" t="n">
-        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
@@ -26430,25 +26430,25 @@
         <v>9947.144321768897</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768907</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768825</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768854</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768887</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-791416.7717645947</v>
+        <v>-791416.7717645951</v>
       </c>
       <c r="C6" t="n">
-        <v>153696.3333917722</v>
+        <v>153696.3333917724</v>
       </c>
       <c r="D6" t="n">
-        <v>357135.0750038781</v>
+        <v>357135.0750038779</v>
       </c>
       <c r="E6" t="n">
-        <v>108341.8188377227</v>
+        <v>108307.0809122875</v>
       </c>
       <c r="F6" t="n">
-        <v>433754.2806450781</v>
+        <v>433719.5427196418</v>
       </c>
       <c r="G6" t="n">
-        <v>433754.2806450778</v>
+        <v>433719.542719642</v>
       </c>
       <c r="H6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="I6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.5427196423</v>
       </c>
       <c r="J6" t="n">
-        <v>266149.1028350955</v>
+        <v>266114.36490966</v>
       </c>
       <c r="K6" t="n">
-        <v>384644.1879390237</v>
+        <v>384609.4500135879</v>
       </c>
       <c r="L6" t="n">
-        <v>433754.2806450779</v>
+        <v>433719.542719642</v>
       </c>
       <c r="M6" t="n">
-        <v>348699.2527095664</v>
+        <v>348664.5147841305</v>
       </c>
       <c r="N6" t="n">
-        <v>433754.2806450781</v>
+        <v>433719.5427196426</v>
       </c>
       <c r="O6" t="n">
-        <v>433754.2806450781</v>
+        <v>433719.542719642</v>
       </c>
       <c r="P6" t="n">
-        <v>433754.2806450782</v>
+        <v>433719.5427196422</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,16 +26811,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.525345615477285e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.198799748375</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>252.2613746685921</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>263.6105247463954</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>70.12485144181034</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>205.504449583684</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.96457916422446</v>
       </c>
       <c r="H5" t="n">
-        <v>168.0688818921489</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747044</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>15.21157799522561</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>69.12041821276458</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.6368266683303</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-8.707735062108396e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-4.796661474883757e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-2.269112917997256e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-5.649312757795878e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256108</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.756932936465</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719501</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478645</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522222</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824574</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34451,34 +34451,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>356.6056756965975</v>
       </c>
       <c r="P3" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112805</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060445</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565909</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499318</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034201</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991242</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
